--- a/pages/images/Dataset_Model_Current_TEMPLATE.xlsx
+++ b/pages/images/Dataset_Model_Current_TEMPLATE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Workspace\CBex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Projects\DA_Operations\templates\dataset_logfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB14C0D-C39A-4B9C-854B-6AACB5BBD844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B644B888-936C-473B-A4BF-F8AAD8C2DBF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="30" windowWidth="38640" windowHeight="21390" tabRatio="694" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dataset Model-Modify Dataset'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dataset Model-New Dataset'!$A$13:$K$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dataset Model-New Dataset'!$A$15:$K$15</definedName>
     <definedName name="_Toc214230240" localSheetId="1">#REF!</definedName>
     <definedName name="_Toc214230240" localSheetId="0">#REF!</definedName>
     <definedName name="_Toc244323915" localSheetId="1">'Dataset Model-Modify Dataset'!#REF!</definedName>
@@ -52,7 +52,7 @@
     <author>Dunham-Wilkie, Mike JTST:EX</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="G10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -194,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
       <text>
         <r>
           <rPr>
@@ -220,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
       <text>
         <r>
           <rPr>
@@ -247,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
       <text>
         <r>
           <rPr>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
       <text>
         <r>
           <rPr>
@@ -283,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
+    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
       <text>
         <r>
           <rPr>
@@ -297,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -323,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -336,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -349,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -362,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
       <text>
         <r>
           <rPr>
@@ -375,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
+    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
       <text>
         <r>
           <rPr>
@@ -388,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000022000000}">
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000022000000}">
       <text>
         <r>
           <rPr>
@@ -401,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000023000000}">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000023000000}">
       <text>
         <r>
           <rPr>
@@ -414,7 +414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000024000000}">
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000024000000}">
       <text>
         <r>
           <rPr>
@@ -427,7 +427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000025000000}">
+    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000025000000}">
       <text>
         <r>
           <rPr>
@@ -440,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000026000000}">
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000026000000}">
       <text>
         <r>
           <rPr>
@@ -453,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000027000000}">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000027000000}">
       <text>
         <r>
           <rPr>
@@ -466,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000028000000}">
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000028000000}">
       <text>
         <r>
           <rPr>
@@ -479,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000029000000}">
+    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000029000000}">
       <text>
         <r>
           <rPr>
@@ -492,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002A000000}">
+    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -505,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002B000000}">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -518,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002C000000}">
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -531,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002D000000}">
+    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -544,7 +544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002E000000}">
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002E000000}">
       <text>
         <r>
           <rPr>
@@ -557,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002F000000}">
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002F000000}">
       <text>
         <r>
           <rPr>
@@ -570,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000030000000}">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000030000000}">
       <text>
         <r>
           <rPr>
@@ -583,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000031000000}">
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000031000000}">
       <text>
         <r>
           <rPr>
@@ -596,7 +596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000032000000}">
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000032000000}">
       <text>
         <r>
           <rPr>
@@ -609,7 +609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000033000000}">
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000033000000}">
       <text>
         <r>
           <rPr>
@@ -622,7 +622,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000034000000}">
+    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000034000000}">
       <text>
         <r>
           <rPr>
@@ -635,7 +635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000035000000}">
+    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000035000000}">
       <text>
         <r>
           <rPr>
@@ -648,7 +648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000036000000}">
+    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000036000000}">
       <text>
         <r>
           <rPr>
@@ -661,7 +661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000037000000}">
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000037000000}">
       <text>
         <r>
           <rPr>
@@ -674,7 +674,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000038000000}">
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000038000000}">
       <text>
         <r>
           <rPr>
@@ -687,7 +687,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000039000000}">
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000039000000}">
       <text>
         <r>
           <rPr>
@@ -700,7 +700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003A000000}">
+    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003A000000}">
       <text>
         <r>
           <rPr>
@@ -713,7 +713,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003B000000}">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003B000000}">
       <text>
         <r>
           <rPr>
@@ -726,7 +726,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003C000000}">
+    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003C000000}">
       <text>
         <r>
           <rPr>
@@ -739,7 +739,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003D000000}">
+    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003D000000}">
       <text>
         <r>
           <rPr>
@@ -752,7 +752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003E000000}">
+    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003E000000}">
       <text>
         <r>
           <rPr>
@@ -765,7 +765,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003F000000}">
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003F000000}">
       <text>
         <r>
           <rPr>
@@ -778,7 +778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000040000000}">
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000040000000}">
       <text>
         <r>
           <rPr>
@@ -791,7 +791,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000041000000}">
+    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000041000000}">
       <text>
         <r>
           <rPr>
@@ -804,7 +804,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000042000000}">
+    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000042000000}">
       <text>
         <r>
           <rPr>
@@ -817,7 +817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000043000000}">
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000043000000}">
       <text>
         <r>
           <rPr>
@@ -830,7 +830,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000044000000}">
+    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000044000000}">
       <text>
         <r>
           <rPr>
@@ -843,7 +843,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000045000000}">
+    <comment ref="G25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000045000000}">
       <text>
         <r>
           <rPr>
@@ -856,7 +856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000046000000}">
+    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000046000000}">
       <text>
         <r>
           <rPr>
@@ -869,7 +869,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000047000000}">
+    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000047000000}">
       <text>
         <r>
           <rPr>
@@ -882,7 +882,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000048000000}">
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000048000000}">
       <text>
         <r>
           <rPr>
@@ -895,7 +895,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000049000000}">
+    <comment ref="G26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000049000000}">
       <text>
         <r>
           <rPr>
@@ -908,7 +908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004A000000}">
+    <comment ref="H26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004A000000}">
       <text>
         <r>
           <rPr>
@@ -921,7 +921,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004B000000}">
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004B000000}">
       <text>
         <r>
           <rPr>
@@ -934,7 +934,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004C000000}">
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004C000000}">
       <text>
         <r>
           <rPr>
@@ -947,7 +947,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004D000000}">
+    <comment ref="G27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004D000000}">
       <text>
         <r>
           <rPr>
@@ -960,7 +960,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004E000000}">
+    <comment ref="H27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004E000000}">
       <text>
         <r>
           <rPr>
@@ -973,7 +973,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004F000000}">
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004F000000}">
       <text>
         <r>
           <rPr>
@@ -986,7 +986,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000050000000}">
+    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000050000000}">
       <text>
         <r>
           <rPr>
@@ -999,7 +999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000051000000}">
+    <comment ref="G28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000051000000}">
       <text>
         <r>
           <rPr>
@@ -1012,7 +1012,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000052000000}">
+    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000052000000}">
       <text>
         <r>
           <rPr>
@@ -1025,7 +1025,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000053000000}">
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000053000000}">
       <text>
         <r>
           <rPr>
@@ -1038,7 +1038,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000054000000}">
+    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000054000000}">
       <text>
         <r>
           <rPr>
@@ -1051,7 +1051,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000055000000}">
+    <comment ref="G29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000055000000}">
       <text>
         <r>
           <rPr>
@@ -1064,7 +1064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000056000000}">
+    <comment ref="H29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000056000000}">
       <text>
         <r>
           <rPr>
@@ -1077,7 +1077,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000057000000}">
+    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000057000000}">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000058000000}">
+    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000058000000}">
       <text>
         <r>
           <rPr>
@@ -1103,7 +1103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000059000000}">
+    <comment ref="G30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000059000000}">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005A000000}">
+    <comment ref="H30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005A000000}">
       <text>
         <r>
           <rPr>
@@ -1129,7 +1129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005B000000}">
+    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005B000000}">
       <text>
         <r>
           <rPr>
@@ -1142,7 +1142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005C000000}">
+    <comment ref="E31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005C000000}">
       <text>
         <r>
           <rPr>
@@ -1155,7 +1155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005D000000}">
+    <comment ref="G31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005D000000}">
       <text>
         <r>
           <rPr>
@@ -1168,7 +1168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005E000000}">
+    <comment ref="H31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005E000000}">
       <text>
         <r>
           <rPr>
@@ -1181,7 +1181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005F000000}">
+    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00005F000000}">
       <text>
         <r>
           <rPr>
@@ -1194,7 +1194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000060000000}">
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000060000000}">
       <text>
         <r>
           <rPr>
@@ -1207,7 +1207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000061000000}">
+    <comment ref="G32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000061000000}">
       <text>
         <r>
           <rPr>
@@ -1220,7 +1220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000062000000}">
+    <comment ref="H32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000062000000}">
       <text>
         <r>
           <rPr>
@@ -1233,7 +1233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000063000000}">
+    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000063000000}">
       <text>
         <r>
           <rPr>
@@ -1246,7 +1246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000064000000}">
+    <comment ref="E33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000064000000}">
       <text>
         <r>
           <rPr>
@@ -1259,7 +1259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000065000000}">
+    <comment ref="G33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000065000000}">
       <text>
         <r>
           <rPr>
@@ -1272,7 +1272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000066000000}">
+    <comment ref="H33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000066000000}">
       <text>
         <r>
           <rPr>
@@ -1285,7 +1285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000067000000}">
+    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000067000000}">
       <text>
         <r>
           <rPr>
@@ -1298,7 +1298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000068000000}">
+    <comment ref="E34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000068000000}">
       <text>
         <r>
           <rPr>
@@ -1311,7 +1311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000069000000}">
+    <comment ref="G34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000069000000}">
       <text>
         <r>
           <rPr>
@@ -1324,7 +1324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006A000000}">
+    <comment ref="H34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006A000000}">
       <text>
         <r>
           <rPr>
@@ -1337,7 +1337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006B000000}">
+    <comment ref="B35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006B000000}">
       <text>
         <r>
           <rPr>
@@ -1350,7 +1350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006C000000}">
+    <comment ref="E35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006C000000}">
       <text>
         <r>
           <rPr>
@@ -1363,7 +1363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006D000000}">
+    <comment ref="G35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006D000000}">
       <text>
         <r>
           <rPr>
@@ -1376,7 +1376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006E000000}">
+    <comment ref="H35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006E000000}">
       <text>
         <r>
           <rPr>
@@ -1389,7 +1389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006F000000}">
+    <comment ref="B36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00006F000000}">
       <text>
         <r>
           <rPr>
@@ -1402,7 +1402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000070000000}">
+    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000070000000}">
       <text>
         <r>
           <rPr>
@@ -1415,7 +1415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000071000000}">
+    <comment ref="G36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000071000000}">
       <text>
         <r>
           <rPr>
@@ -1428,7 +1428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000072000000}">
+    <comment ref="H36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000072000000}">
       <text>
         <r>
           <rPr>
@@ -1441,7 +1441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D36" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000073000000}">
+    <comment ref="D38" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000073000000}">
       <text>
         <r>
           <rPr>
@@ -1455,7 +1455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000074000000}">
+    <comment ref="D39" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000074000000}">
       <text>
         <r>
           <rPr>
@@ -1481,7 +1481,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{02F3C534-1714-43EC-AAFE-FB54F3FD4FB0}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{02F3C534-1714-43EC-AAFE-FB54F3FD4FB0}">
       <text>
         <r>
           <rPr>
@@ -2952,7 +2952,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="281">
   <si>
     <t>Yes</t>
   </si>
@@ -3158,9 +3158,6 @@
     <t>WHSE_CORP</t>
   </si>
   <si>
-    <t>ad hoc</t>
-  </si>
-  <si>
     <t>APP_</t>
   </si>
   <si>
@@ -3171,15 +3168,6 @@
   </si>
   <si>
     <t>ANNO_CAD</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>weekly</t>
-  </si>
-  <si>
-    <t>monthly</t>
   </si>
   <si>
     <t>ADMIN_UNIT_CODE</t>
@@ -3781,12 +3769,70 @@
   <si>
     <t>Dataset Description (short):</t>
   </si>
+  <si>
+    <t>Source Data Size (Mb/Gb)</t>
+  </si>
+  <si>
+    <t>Estimated Growth Per Year (Mb/Gb)</t>
+  </si>
+  <si>
+    <t>Geometry Type</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Polygon</t>
+  </si>
+  <si>
+    <t>Non-spatial</t>
+  </si>
+  <si>
+    <t>Replication Frequency</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>As Needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hourly (special cases only) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the dataset is replacing a BCGW object, provide the current schema and object name:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(e.g., WHSE_ABCD.OBJECT_NAME)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3912,6 +3958,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -3975,7 +4028,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -4560,12 +4613,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4635,9 +4714,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4684,157 +4760,132 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4852,25 +4903,61 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6033,20 +6120,20 @@
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.453125" style="1" customWidth="1"/>
     <col min="4" max="5" width="17.54296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.26953125" style="1" customWidth="1"/>
     <col min="9" max="9" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34.54296875" style="1" customWidth="1"/>
@@ -6058,10 +6145,10 @@
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:12" s="5" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="83"/>
+        <v>248</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -6087,237 +6174,231 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="96"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="105"/>
+      <c r="I4" s="94"/>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="98"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="H5" s="105"/>
+      <c r="I5" s="94"/>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="62"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="95" t="s">
         <v>268</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="86" t="s">
-        <v>269</v>
-      </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="87"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="94"/>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="106" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="98"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="100"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
+      <c r="G7" s="95" t="s">
+        <v>273</v>
+      </c>
+      <c r="H7" s="105"/>
+      <c r="I7" s="94"/>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="107"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="68" t="s">
-        <v>263</v>
-      </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="70" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="71"/>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="72" t="s">
+      <c r="K10" s="68"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="K11" s="70"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J12" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="K12" s="51"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="J14" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="K9" s="73"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J10" s="74" t="s">
-        <v>243</v>
-      </c>
-      <c r="K10" s="75"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79" t="s">
+      <c r="K14" s="78"/>
+      <c r="L14" s="29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="J15" s="60" t="s">
         <v>245</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="76" t="s">
-        <v>247</v>
-      </c>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="J12" s="61" t="s">
-        <v>246</v>
-      </c>
-      <c r="K12" s="61"/>
-      <c r="L12" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="J13" s="84" t="s">
-        <v>249</v>
-      </c>
-      <c r="K13" s="84"/>
-      <c r="L13" s="31" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="3" t="str">
-        <f>CONCATENATE(G9,"_SYSID")</f>
-        <v>_SYSID</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="3">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="J14" s="85" t="s">
-        <v>236</v>
-      </c>
-      <c r="K14" s="85"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="29" t="e">
-        <f>VLOOKUP($D15,abbreviations!$A$1:$B$99999,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J15" s="59"/>
       <c r="K15" s="60"/>
-      <c r="L15" s="29"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L15" s="30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="29" t="e">
-        <f>VLOOKUP($D16,abbreviations!$A$1:$B$99999,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="29"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D16" s="3" t="str">
+        <f>CONCATENATE(G11,"_SYSID")</f>
+        <v>_SYSID</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="3">
+        <v>10</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="J16" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="K16" s="79"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="15"/>
@@ -6326,13 +6407,13 @@
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
-      <c r="I17" s="29" t="e">
+      <c r="I17" s="28" t="e">
         <f>VLOOKUP($D17,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J17" s="59"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="29"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
@@ -6343,13 +6424,13 @@
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="29" t="e">
+      <c r="I18" s="28" t="e">
         <f>VLOOKUP($D18,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J18" s="59"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="29"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="28"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
@@ -6360,13 +6441,13 @@
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="29" t="e">
+      <c r="I19" s="28" t="e">
         <f>VLOOKUP($D19,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J19" s="59"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="29"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="28"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
@@ -6377,13 +6458,13 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="29" t="e">
+      <c r="I20" s="28" t="e">
         <f>VLOOKUP($D20,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J20" s="59"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="29"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
@@ -6394,13 +6475,13 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="29" t="e">
+      <c r="I21" s="28" t="e">
         <f>VLOOKUP($D21,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J21" s="59"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="29"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="28"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
@@ -6411,13 +6492,13 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="29" t="e">
+      <c r="I22" s="28" t="e">
         <f>VLOOKUP($D22,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J22" s="59"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="29"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="28"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
@@ -6428,13 +6509,13 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="29" t="e">
+      <c r="I23" s="28" t="e">
         <f>VLOOKUP($D23,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J23" s="59"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="29"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="28"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
@@ -6445,13 +6526,13 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
-      <c r="I24" s="29" t="e">
+      <c r="I24" s="28" t="e">
         <f>VLOOKUP($D24,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J24" s="59"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="29"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="28"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
@@ -6462,13 +6543,13 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="29" t="e">
+      <c r="I25" s="28" t="e">
         <f>VLOOKUP($D25,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J25" s="59"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="29"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="28"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
@@ -6479,13 +6560,13 @@
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="29" t="e">
+      <c r="I26" s="28" t="e">
         <f>VLOOKUP($D26,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J26" s="59"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="29"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="28"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
@@ -6496,13 +6577,13 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="29" t="e">
+      <c r="I27" s="28" t="e">
         <f>VLOOKUP($D27,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J27" s="59"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="29"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="28"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
@@ -6513,13 +6594,13 @@
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="29" t="e">
+      <c r="I28" s="28" t="e">
         <f>VLOOKUP($D28,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J28" s="59"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="29"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="28"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
@@ -6530,13 +6611,13 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
-      <c r="I29" s="29" t="e">
+      <c r="I29" s="28" t="e">
         <f>VLOOKUP($D29,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J29" s="59"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="29"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="28"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
@@ -6547,13 +6628,13 @@
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
-      <c r="I30" s="29" t="e">
+      <c r="I30" s="28" t="e">
         <f>VLOOKUP($D30,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J30" s="59"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="29"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="28"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
@@ -6564,13 +6645,13 @@
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
-      <c r="I31" s="29" t="e">
+      <c r="I31" s="28" t="e">
         <f>VLOOKUP($D31,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J31" s="59"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="29"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="28"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
@@ -6581,13 +6662,13 @@
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="29" t="e">
+      <c r="I32" s="28" t="e">
         <f>VLOOKUP($D32,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J32" s="59"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="29"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="28"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
@@ -6598,13 +6679,13 @@
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
-      <c r="I33" s="29" t="e">
+      <c r="I33" s="28" t="e">
         <f>VLOOKUP($D33,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J33" s="59"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="29"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="28"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
@@ -6615,252 +6696,292 @@
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
-      <c r="I34" s="29" t="e">
+      <c r="I34" s="28" t="e">
         <f>VLOOKUP($D34,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J34" s="59"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="29"/>
-    </row>
-    <row r="35" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="48"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="28"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="28" t="e">
+        <f>VLOOKUP($D35,abbreviations!$A$1:$B$99999,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J35" s="48"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="28"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="28" t="e">
+        <f>VLOOKUP($D36,abbreviations!$A$1:$B$99999,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J36" s="48"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="28"/>
+    </row>
+    <row r="37" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="4">
-        <v>38</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J35" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="K35" s="98"/>
-      <c r="L35" s="29"/>
-    </row>
-    <row r="36" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J36" s="97" t="s">
-        <v>237</v>
-      </c>
-      <c r="K36" s="98"/>
-      <c r="L36" s="9"/>
-    </row>
-    <row r="37" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="55"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>63</v>
+      <c r="F37" s="4">
+        <v>38</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H37" s="12" t="s">
-        <v>232</v>
-      </c>
+      <c r="H37" s="4"/>
       <c r="I37" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J37" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="K37" s="98"/>
-      <c r="L37" s="9"/>
-    </row>
-    <row r="38" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="55"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="57"/>
+        <v>60</v>
+      </c>
+      <c r="J37" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="K37" s="81"/>
+      <c r="L37" s="28"/>
+    </row>
+    <row r="38" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="72"/>
+      <c r="C38" s="73"/>
       <c r="D38" s="3" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="4">
-        <v>38</v>
+      <c r="F38" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J38" s="80" t="s">
         <v>233</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J38" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="K38" s="98"/>
+      <c r="K38" s="81"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="55"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="57"/>
+    <row r="39" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="74"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="G39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J39" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="K39" s="98"/>
+      <c r="H39" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="K39" s="81"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="41" spans="1:12" s="47" customFormat="1" ht="68.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="L41" s="48"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="47"/>
+    <row r="40" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="74"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="4">
+        <v>38</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="K40" s="81"/>
+      <c r="L40" s="9"/>
+    </row>
+    <row r="41" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="74"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J41" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="K41" s="81"/>
+      <c r="L41" s="9"/>
+    </row>
+    <row r="43" spans="1:12" s="45" customFormat="1" ht="68.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="L43" s="46"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="45"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="43">
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J30:K30"/>
+  <mergeCells count="49">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A38:C41"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
     <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J25:K25"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A14:C14"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J15:K15"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:E6"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A36:C39"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J35:K35"/>
     <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J29:K29"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
   </mergeCells>
-  <conditionalFormatting sqref="D15:D35">
+  <conditionalFormatting sqref="D17:D37">
     <cfRule type="expression" dxfId="12" priority="16">
-      <formula>LEN(D15)&gt;30</formula>
+      <formula>LEN(D17)&gt;30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I35">
+  <conditionalFormatting sqref="I17:I37">
     <cfRule type="expression" dxfId="11" priority="19">
-      <formula>LEN(I15)&gt;10</formula>
+      <formula>LEN(I17)&gt;10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
+  <conditionalFormatting sqref="G11">
     <cfRule type="expression" dxfId="10" priority="3">
-      <formula>LEN(G9) &gt;30</formula>
+      <formula>LEN(G11) &gt;30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="9" priority="1">
-      <formula>LEN(D9) &gt;30</formula>
+      <formula>LEN(D11) &gt;30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
+  <conditionalFormatting sqref="A11">
     <cfRule type="expression" dxfId="8" priority="2">
-      <formula>LEN(A9) &gt;30</formula>
+      <formula>LEN(A11) &gt;30</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="81" yWindow="814" count="4">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A12 D12 A13:H13 J13" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The ID field is an unique value that may be system generated or user specified" sqref="J14 L14" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15:A35" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A14 D14 A15:H15 J15" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The ID field is an unique value that may be system generated or user specified" sqref="J16 L16" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17:A37" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" sqref="I14:I35" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" sqref="I16:I37" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J9" r:id="rId1" display="Naming and Describing Standards" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="J10" r:id="rId2" display="Data Classification Hierarchy" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="J10:K10" r:id="rId3" display="Common Data Standards and Guidelines" xr:uid="{6788527C-D7D7-4CDD-81DF-EFD3CCB89E0F}"/>
-    <hyperlink ref="J9:K9" r:id="rId4" display="BC Geographic Warehouse - Standards and Guidelines" xr:uid="{5F5FB0A0-B704-443C-BCE9-8526657186B1}"/>
+    <hyperlink ref="J11" r:id="rId1" display="Naming and Describing Standards" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="J12" r:id="rId2" display="Data Classification Hierarchy" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="J12:K12" r:id="rId3" display="Common Data Standards and Guidelines" xr:uid="{6788527C-D7D7-4CDD-81DF-EFD3CCB89E0F}"/>
+    <hyperlink ref="J11:K11" r:id="rId4" display="BC Geographic Warehouse - Standards and Guidelines" xr:uid="{5F5FB0A0-B704-443C-BCE9-8526657186B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId5"/>
@@ -6868,36 +6989,48 @@
   <legacyDrawing r:id="rId7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="81" yWindow="814" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="81" yWindow="814" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>'Drop Downs'!$E$1:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B14:B35</xm:sqref>
+          <xm:sqref>B16:B37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>'Drop Downs'!$F$1:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E14:E35</xm:sqref>
+          <xm:sqref>E16:E37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>'Drop Downs'!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>G14:G35</xm:sqref>
+          <xm:sqref>G16:G37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" prompt="Schema?" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>'Drop Downs'!$G$2:$G$32</xm:f>
           </x14:formula1>
-          <xm:sqref>A9</xm:sqref>
+          <xm:sqref>A11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000010000000}">
           <x14:formula1>
             <xm:f>'Drop Downs'!$M$1:$M$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H14:H39</xm:sqref>
+          <xm:sqref>H16:H41</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BAFE5009-D54B-4B96-B1E4-75DD23C3F680}">
+          <x14:formula1>
+            <xm:f>'Drop Downs'!$N$1:$N$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>H6:I6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3E38935E-84A3-4BEC-B04E-68E6F8CC64F9}">
+          <x14:formula1>
+            <xm:f>'Drop Downs'!$L$1:$L$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>H7:I7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6913,7 +7046,7 @@
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6928,18 +7061,18 @@
     <col min="10" max="10" width="41.08984375" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.26953125" style="1" customWidth="1"/>
     <col min="12" max="12" width="35.453125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.08984375" style="32" customWidth="1"/>
+    <col min="13" max="13" width="14.08984375" style="31" customWidth="1"/>
     <col min="14" max="14" width="28" style="1" customWidth="1"/>
     <col min="15" max="15" width="8.26953125" style="1" customWidth="1"/>
     <col min="16" max="16" width="10.90625" style="1" customWidth="1"/>
     <col min="17" max="17" width="7.81640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.08984375" style="32" customWidth="1"/>
+    <col min="18" max="18" width="14.08984375" style="31" customWidth="1"/>
     <col min="19" max="19" width="13.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.26953125" style="32" customWidth="1"/>
+    <col min="21" max="21" width="2.26953125" style="31" customWidth="1"/>
     <col min="22" max="22" width="34.54296875" style="1" customWidth="1"/>
     <col min="23" max="23" width="43.36328125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="2.453125" style="32" customWidth="1"/>
+    <col min="24" max="24" width="2.453125" style="31" customWidth="1"/>
     <col min="25" max="25" width="42.36328125" style="8" customWidth="1"/>
     <col min="26" max="16384" width="9.1796875" style="1"/>
   </cols>
@@ -6947,31 +7080,31 @@
     <row r="1" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:25" s="5" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="40"/>
+        <v>248</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="33"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="33"/>
+      <c r="R2" s="32"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
-      <c r="U2" s="33"/>
+      <c r="U2" s="32"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
-      <c r="X2" s="33"/>
+      <c r="X2" s="32"/>
       <c r="Y2" s="7"/>
     </row>
     <row r="3" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6987,38 +7120,37 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="33"/>
+      <c r="M3" s="32"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="33"/>
+      <c r="R3" s="32"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
-      <c r="U3" s="33"/>
+      <c r="U3" s="32"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
-      <c r="X3" s="33"/>
+      <c r="X3" s="32"/>
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="108" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="99" t="s">
-        <v>264</v>
-      </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="32"/>
+      <c r="A4" s="86" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="90"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="70" t="s">
+      <c r="J4" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="71"/>
+      <c r="K4" s="68"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
@@ -7029,23 +7161,22 @@
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
-      <c r="X4" s="36"/>
+      <c r="X4" s="35"/>
       <c r="Y4" s="13"/>
     </row>
     <row r="5" spans="1:25" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="104"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="72" t="s">
-        <v>242</v>
-      </c>
-      <c r="K5" s="73"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="70"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
@@ -7060,33 +7191,33 @@
       <c r="Y5" s="14"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J6" s="74" t="s">
-        <v>243</v>
-      </c>
-      <c r="K6" s="75"/>
+      <c r="J6" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="K6" s="51"/>
       <c r="X6" s="25"/>
     </row>
     <row r="7" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="s">
-        <v>259</v>
-      </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="J8" s="103" t="s">
-        <v>258</v>
-      </c>
-      <c r="K8" s="103"/>
-      <c r="L8" s="44" t="s">
-        <v>253</v>
+      <c r="A8" s="86" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="J8" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="K8" s="93"/>
+      <c r="L8" s="43" t="s">
+        <v>249</v>
       </c>
       <c r="M8" s="8"/>
       <c r="R8" s="1"/>
@@ -7096,16 +7227,16 @@
     </row>
     <row r="9" spans="1:25" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>260</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>41</v>
@@ -7114,20 +7245,20 @@
         <v>40</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="J9" s="84" t="s">
-        <v>249</v>
-      </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="45" t="s">
-        <v>254</v>
+        <v>258</v>
+      </c>
+      <c r="J9" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="K9" s="60"/>
+      <c r="L9" s="44" t="s">
+        <v>250</v>
       </c>
       <c r="M9" s="8"/>
       <c r="R9" s="1"/>
@@ -7136,8 +7267,8 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
-        <v>50</v>
+      <c r="A10" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -7147,9 +7278,9 @@
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="37"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="36"/>
       <c r="M10" s="8"/>
       <c r="R10" s="1"/>
       <c r="U10" s="1"/>
@@ -7157,7 +7288,7 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -7166,9 +7297,9 @@
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="37"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="36"/>
       <c r="M11" s="8"/>
       <c r="R11" s="1"/>
       <c r="U11" s="1"/>
@@ -7176,7 +7307,7 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -7185,9 +7316,9 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="37"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="36"/>
       <c r="M12" s="8"/>
       <c r="R12" s="1"/>
       <c r="U12" s="1"/>
@@ -7195,7 +7326,7 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -7204,9 +7335,9 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="37"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="36"/>
       <c r="M13" s="8"/>
       <c r="R13" s="1"/>
       <c r="U13" s="1"/>
@@ -7214,7 +7345,7 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -7223,9 +7354,9 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="37"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="36"/>
       <c r="M14" s="8"/>
       <c r="R14" s="1"/>
       <c r="U14" s="1"/>
@@ -7233,7 +7364,7 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -7242,9 +7373,9 @@
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="37"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="36"/>
       <c r="M15" s="8"/>
       <c r="R15" s="1"/>
       <c r="U15" s="1"/>
@@ -7252,7 +7383,7 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -7261,9 +7392,9 @@
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="37"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="36"/>
       <c r="M16" s="8"/>
       <c r="R16" s="1"/>
       <c r="U16" s="1"/>
@@ -7271,7 +7402,7 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -7280,9 +7411,9 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="37"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="36"/>
       <c r="M17" s="8"/>
       <c r="R17" s="1"/>
       <c r="U17" s="1"/>
@@ -7290,7 +7421,7 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -7299,9 +7430,9 @@
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="37"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="36"/>
       <c r="M18" s="8"/>
       <c r="R18" s="1"/>
       <c r="U18" s="1"/>
@@ -7309,7 +7440,7 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -7318,9 +7449,9 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="37"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="36"/>
       <c r="M19" s="8"/>
       <c r="R19" s="1"/>
       <c r="U19" s="1"/>
@@ -7328,7 +7459,7 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -7337,9 +7468,9 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="37"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="36"/>
       <c r="M20" s="8"/>
       <c r="R20" s="1"/>
       <c r="U20" s="1"/>
@@ -7347,7 +7478,7 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -7356,9 +7487,9 @@
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="37"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="36"/>
       <c r="M21" s="8"/>
       <c r="R21" s="1"/>
       <c r="U21" s="1"/>
@@ -7366,7 +7497,7 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -7375,9 +7506,9 @@
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="37"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="36"/>
       <c r="M22" s="8"/>
       <c r="R22" s="1"/>
       <c r="U22" s="1"/>
@@ -7385,7 +7516,7 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -7394,9 +7525,9 @@
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="37"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="36"/>
       <c r="M23" s="8"/>
       <c r="R23" s="1"/>
       <c r="U23" s="1"/>
@@ -7404,7 +7535,7 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -7413,9 +7544,9 @@
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="37"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="36"/>
       <c r="M24" s="8"/>
       <c r="R24" s="1"/>
       <c r="U24" s="1"/>
@@ -7423,7 +7554,7 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -7432,9 +7563,9 @@
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="37"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="36"/>
       <c r="M25" s="8"/>
       <c r="R25" s="1"/>
       <c r="U25" s="1"/>
@@ -7442,7 +7573,7 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -7451,9 +7582,9 @@
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="37"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="36"/>
       <c r="M26" s="8"/>
       <c r="R26" s="1"/>
       <c r="U26" s="1"/>
@@ -7461,7 +7592,7 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -7470,9 +7601,9 @@
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="37"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="36"/>
       <c r="M27" s="8"/>
       <c r="R27" s="1"/>
       <c r="U27" s="1"/>
@@ -7480,7 +7611,7 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -7489,9 +7620,9 @@
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="37"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="36"/>
       <c r="M28" s="8"/>
       <c r="R28" s="1"/>
       <c r="U28" s="1"/>
@@ -7499,7 +7630,7 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="35"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -7508,9 +7639,9 @@
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="38"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="37"/>
       <c r="M29" s="8"/>
       <c r="R29" s="1"/>
       <c r="U29" s="1"/>
@@ -7520,6 +7651,20 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="30">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="A8:H8"/>
@@ -7536,20 +7681,6 @@
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <conditionalFormatting sqref="F5">
     <cfRule type="expression" dxfId="7" priority="11">
@@ -7646,10 +7777,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7660,10 +7791,11 @@
     <col min="8" max="8" width="18.453125" customWidth="1"/>
     <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7683,7 +7815,7 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
         <v>46</v>
@@ -7698,13 +7830,16 @@
         <v>47</v>
       </c>
       <c r="L1" t="s">
-        <v>75</v>
+        <v>274</v>
       </c>
       <c r="M1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+      <c r="N1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7739,13 +7874,16 @@
         <v>57</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="M2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+      <c r="N2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -7774,13 +7912,16 @@
         <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>276</v>
       </c>
       <c r="M3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+      <c r="N3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -7797,19 +7938,22 @@
         <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K4" t="s">
         <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>277</v>
       </c>
       <c r="M4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -7822,61 +7966,67 @@
       <c r="G5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>48</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G16" t="s">
         <v>23</v>
       </c>
@@ -7978,170 +8128,170 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -8149,23 +8299,23 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -8173,239 +8323,239 @@
         <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B40" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B42" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B50" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B51" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B53" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -8413,215 +8563,215 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B57" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B58" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B59" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B60" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B61" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B62" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B63" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B64" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B65" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B66" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B67" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B68" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B69" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B70" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B71" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B72" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B73" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B74" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B75" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B76" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B77" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B78" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B79" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B80" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B81" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -8639,19 +8789,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DED4A2CA298C634D861C291708FBD60B" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e9dad94b1987da259c39e2ef3e1e6b7a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -8765,25 +8902,46 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA75E35D-C619-45E2-A921-889D8A13153B}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{659DA32C-5651-4ED5-961A-CEDF94F65B02}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F3BCE80-3643-4525-B9BB-BDD667043D24}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8797,17 +8955,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F3BCE80-3643-4525-B9BB-BDD667043D24}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{659DA32C-5651-4ED5-961A-CEDF94F65B02}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/pages/images/Dataset_Model_Current_TEMPLATE.xlsx
+++ b/pages/images/Dataset_Model_Current_TEMPLATE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Projects\DA_Operations\templates\dataset_logfile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Workspace\CBex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B644B888-936C-473B-A4BF-F8AAD8C2DBF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05261567-8C6B-4CAD-94AF-031A310A3DFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="30" windowWidth="38640" windowHeight="21390" tabRatio="694" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2952,7 +2952,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="283">
   <si>
     <t>Yes</t>
   </si>
@@ -3827,12 +3827,18 @@
       <t>(e.g., WHSE_ABCD.OBJECT_NAME)</t>
     </r>
   </si>
+  <si>
+    <t>Copy this tab for each additional dataset to be published.</t>
+  </si>
+  <si>
+    <t>Copy this tab for each additional dataset to be modified.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3965,6 +3971,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -4028,7 +4043,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -4639,12 +4654,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4705,9 +4735,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4752,7 +4779,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4765,12 +4791,144 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4786,85 +4944,19 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4888,78 +4980,23 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6122,9 +6159,7 @@
   </sheetPr>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6142,13 +6177,17 @@
     <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="114" t="s">
+        <v>281</v>
+      </c>
+    </row>
     <row r="2" spans="1:12" s="5" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="109" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -6174,69 +6213,69 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="104"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="79"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="95" t="s">
+      <c r="G4" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="H4" s="105"/>
-      <c r="I4" s="94"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="75" t="s">
         <v>265</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="100"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="95" t="s">
+      <c r="G5" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="H5" s="105"/>
-      <c r="I5" s="94"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="62"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="103"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="95" t="s">
+      <c r="G6" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="H6" s="105"/>
-      <c r="I6" s="94"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="57"/>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="100"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="94"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="107"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="103"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -6260,76 +6299,74 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66" t="s">
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="86" t="s">
         <v>259</v>
       </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="26" t="s">
+      <c r="E10" s="81"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="25" t="s">
         <v>227</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="67" t="s">
+      <c r="J10" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="K10" s="68"/>
+      <c r="K10" s="89"/>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="112"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="13"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="90" t="s">
         <v>238</v>
       </c>
-      <c r="K11" s="70"/>
+      <c r="K11" s="91"/>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J12" s="50" t="s">
+      <c r="J12" s="92" t="s">
         <v>239</v>
       </c>
-      <c r="K12" s="51"/>
+      <c r="K12" s="93"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="52" t="s">
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="94" t="s">
         <v>243</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="29" t="s">
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="J14" s="78" t="s">
+      <c r="J14" s="67" t="s">
         <v>242</v>
       </c>
-      <c r="K14" s="78"/>
-      <c r="L14" s="29" t="s">
+      <c r="K14" s="67"/>
+      <c r="L14" s="28" t="s">
         <v>249</v>
       </c>
     </row>
@@ -6358,14 +6395,14 @@
       <c r="H15" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="J15" s="60" t="s">
+      <c r="J15" s="74" t="s">
         <v>245</v>
       </c>
-      <c r="K15" s="60"/>
-      <c r="L15" s="30" t="s">
+      <c r="K15" s="74"/>
+      <c r="L15" s="29" t="s">
         <v>250</v>
       </c>
     </row>
@@ -6392,10 +6429,10 @@
       <c r="I16" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="J16" s="79" t="s">
+      <c r="J16" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="K16" s="79"/>
+      <c r="K16" s="68"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6407,13 +6444,13 @@
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
-      <c r="I17" s="28" t="e">
+      <c r="I17" s="27" t="e">
         <f>VLOOKUP($D17,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="28"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="27"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
@@ -6424,13 +6461,13 @@
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="28" t="e">
+      <c r="I18" s="27" t="e">
         <f>VLOOKUP($D18,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J18" s="48"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="28"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="27"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
@@ -6441,13 +6478,13 @@
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="28" t="e">
+      <c r="I19" s="27" t="e">
         <f>VLOOKUP($D19,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J19" s="48"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="28"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="27"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
@@ -6458,13 +6495,13 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="28" t="e">
+      <c r="I20" s="27" t="e">
         <f>VLOOKUP($D20,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J20" s="48"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="28"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="27"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
@@ -6475,13 +6512,13 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="28" t="e">
+      <c r="I21" s="27" t="e">
         <f>VLOOKUP($D21,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="28"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="27"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
@@ -6492,13 +6529,13 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="28" t="e">
+      <c r="I22" s="27" t="e">
         <f>VLOOKUP($D22,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J22" s="48"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="28"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="27"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
@@ -6509,13 +6546,13 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="28" t="e">
+      <c r="I23" s="27" t="e">
         <f>VLOOKUP($D23,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J23" s="48"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="28"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="27"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
@@ -6526,13 +6563,13 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
-      <c r="I24" s="28" t="e">
+      <c r="I24" s="27" t="e">
         <f>VLOOKUP($D24,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J24" s="48"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="28"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="27"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
@@ -6543,13 +6580,13 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="28" t="e">
+      <c r="I25" s="27" t="e">
         <f>VLOOKUP($D25,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J25" s="48"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="28"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="27"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
@@ -6560,13 +6597,13 @@
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="28" t="e">
+      <c r="I26" s="27" t="e">
         <f>VLOOKUP($D26,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J26" s="48"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="28"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="27"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
@@ -6577,13 +6614,13 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="28" t="e">
+      <c r="I27" s="27" t="e">
         <f>VLOOKUP($D27,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="28"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="27"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
@@ -6594,13 +6631,13 @@
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="28" t="e">
+      <c r="I28" s="27" t="e">
         <f>VLOOKUP($D28,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J28" s="48"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="28"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="27"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
@@ -6611,13 +6648,13 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
-      <c r="I29" s="28" t="e">
+      <c r="I29" s="27" t="e">
         <f>VLOOKUP($D29,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J29" s="48"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="28"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="27"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
@@ -6628,13 +6665,13 @@
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
-      <c r="I30" s="28" t="e">
+      <c r="I30" s="27" t="e">
         <f>VLOOKUP($D30,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J30" s="48"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="28"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="27"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
@@ -6645,13 +6682,13 @@
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
-      <c r="I31" s="28" t="e">
+      <c r="I31" s="27" t="e">
         <f>VLOOKUP($D31,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J31" s="48"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="28"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="27"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
@@ -6662,13 +6699,13 @@
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="28" t="e">
+      <c r="I32" s="27" t="e">
         <f>VLOOKUP($D32,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J32" s="48"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="28"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="27"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
@@ -6679,13 +6716,13 @@
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
-      <c r="I33" s="28" t="e">
+      <c r="I33" s="27" t="e">
         <f>VLOOKUP($D33,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J33" s="48"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="28"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="27"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
@@ -6696,13 +6733,13 @@
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
-      <c r="I34" s="28" t="e">
+      <c r="I34" s="27" t="e">
         <f>VLOOKUP($D34,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J34" s="48"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="28"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="27"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="15"/>
@@ -6713,13 +6750,13 @@
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
-      <c r="I35" s="28" t="e">
+      <c r="I35" s="27" t="e">
         <f>VLOOKUP($D35,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J35" s="48"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="28"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="27"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
@@ -6730,13 +6767,13 @@
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
-      <c r="I36" s="28" t="e">
+      <c r="I36" s="27" t="e">
         <f>VLOOKUP($D36,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J36" s="48"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="28"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="27"/>
     </row>
     <row r="37" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
@@ -6758,18 +6795,18 @@
       <c r="I37" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J37" s="80" t="s">
+      <c r="J37" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="K37" s="81"/>
-      <c r="L37" s="28"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="27"/>
     </row>
     <row r="38" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="73"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="60"/>
       <c r="D38" s="3" t="s">
         <v>61</v>
       </c>
@@ -6788,16 +6825,16 @@
       <c r="I38" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J38" s="80" t="s">
+      <c r="J38" s="69" t="s">
         <v>233</v>
       </c>
-      <c r="K38" s="81"/>
+      <c r="K38" s="70"/>
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="74"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="76"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="3" t="s">
         <v>62</v>
       </c>
@@ -6816,16 +6853,16 @@
       <c r="I39" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J39" s="80" t="s">
+      <c r="J39" s="69" t="s">
         <v>234</v>
       </c>
-      <c r="K39" s="81"/>
+      <c r="K39" s="70"/>
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="74"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="76"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="3" t="s">
         <v>7</v>
       </c>
@@ -6844,16 +6881,16 @@
       <c r="I40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J40" s="80" t="s">
+      <c r="J40" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="K40" s="81"/>
+      <c r="K40" s="70"/>
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="74"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="76"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="3" t="s">
         <v>64</v>
       </c>
@@ -6868,34 +6905,55 @@
       <c r="I41" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J41" s="80" t="s">
+      <c r="J41" s="69" t="s">
         <v>237</v>
       </c>
-      <c r="K41" s="81"/>
+      <c r="K41" s="70"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="43" spans="1:12" s="45" customFormat="1" ht="68.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="77" t="s">
+    <row r="43" spans="1:12" s="43" customFormat="1" ht="68.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="64" t="s">
         <v>262</v>
       </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="L43" s="46"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="L43" s="44"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="45"/>
+      <c r="A44" s="43"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="49">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
     <mergeCell ref="A38:C41"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="J17:K17"/>
@@ -6912,33 +6970,12 @@
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <conditionalFormatting sqref="D17:D37">
     <cfRule type="expression" dxfId="12" priority="16">
@@ -7046,7 +7083,7 @@
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -7061,50 +7098,55 @@
     <col min="10" max="10" width="41.08984375" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.26953125" style="1" customWidth="1"/>
     <col min="12" max="12" width="35.453125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.08984375" style="31" customWidth="1"/>
+    <col min="13" max="13" width="14.08984375" style="30" customWidth="1"/>
     <col min="14" max="14" width="28" style="1" customWidth="1"/>
     <col min="15" max="15" width="8.26953125" style="1" customWidth="1"/>
     <col min="16" max="16" width="10.90625" style="1" customWidth="1"/>
     <col min="17" max="17" width="7.81640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.08984375" style="31" customWidth="1"/>
+    <col min="18" max="18" width="14.08984375" style="30" customWidth="1"/>
     <col min="19" max="19" width="13.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.26953125" style="31" customWidth="1"/>
+    <col min="21" max="21" width="2.26953125" style="30" customWidth="1"/>
     <col min="22" max="22" width="34.54296875" style="1" customWidth="1"/>
     <col min="23" max="23" width="43.36328125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="2.453125" style="31" customWidth="1"/>
+    <col min="24" max="24" width="2.453125" style="30" customWidth="1"/>
     <col min="25" max="25" width="42.36328125" style="8" customWidth="1"/>
     <col min="26" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="114" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="115"/>
+    </row>
     <row r="2" spans="1:25" s="5" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="112" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="39"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="32"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="32"/>
+      <c r="R2" s="31"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
-      <c r="U2" s="32"/>
+      <c r="U2" s="31"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
-      <c r="X2" s="32"/>
+      <c r="X2" s="31"/>
       <c r="Y2" s="7"/>
     </row>
     <row r="3" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7120,37 +7162,37 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="32"/>
+      <c r="M3" s="31"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="32"/>
+      <c r="R3" s="31"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
-      <c r="U3" s="32"/>
+      <c r="U3" s="31"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
-      <c r="X3" s="32"/>
+      <c r="X3" s="31"/>
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="106" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="89" t="s">
+      <c r="B4" s="108"/>
+      <c r="C4" s="97" t="s">
         <v>260</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="F4" s="31"/>
+      <c r="D4" s="98"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="67" t="s">
+      <c r="J4" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="68"/>
+      <c r="K4" s="89"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
@@ -7161,22 +7203,22 @@
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
-      <c r="X4" s="35"/>
+      <c r="X4" s="34"/>
       <c r="Y4" s="13"/>
     </row>
     <row r="5" spans="1:25" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="82"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="69" t="s">
+      <c r="A5" s="102"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="90" t="s">
         <v>238</v>
       </c>
-      <c r="K5" s="70"/>
+      <c r="K5" s="91"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
@@ -7187,36 +7229,36 @@
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
-      <c r="X5" s="25"/>
+      <c r="X5" s="24"/>
       <c r="Y5" s="14"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="92" t="s">
         <v>239</v>
       </c>
-      <c r="K6" s="51"/>
-      <c r="X6" s="25"/>
+      <c r="K6" s="93"/>
+      <c r="X6" s="24"/>
     </row>
     <row r="7" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:25" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="106" t="s">
         <v>255</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="40" t="s">
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="J8" s="93" t="s">
+      <c r="J8" s="101" t="s">
         <v>254</v>
       </c>
-      <c r="K8" s="93"/>
-      <c r="L8" s="43" t="s">
+      <c r="K8" s="101"/>
+      <c r="L8" s="41" t="s">
         <v>249</v>
       </c>
       <c r="M8" s="8"/>
@@ -7253,11 +7295,11 @@
       <c r="I9" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="J9" s="60" t="s">
+      <c r="J9" s="74" t="s">
         <v>245</v>
       </c>
-      <c r="K9" s="60"/>
-      <c r="L9" s="44" t="s">
+      <c r="K9" s="74"/>
+      <c r="L9" s="42" t="s">
         <v>250</v>
       </c>
       <c r="M9" s="8"/>
@@ -7267,7 +7309,7 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="17"/>
@@ -7278,9 +7320,9 @@
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="36"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="8"/>
       <c r="R10" s="1"/>
       <c r="U10" s="1"/>
@@ -7288,7 +7330,7 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -7297,9 +7339,9 @@
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="36"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="35"/>
       <c r="M11" s="8"/>
       <c r="R11" s="1"/>
       <c r="U11" s="1"/>
@@ -7307,7 +7349,7 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -7316,9 +7358,9 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="36"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="35"/>
       <c r="M12" s="8"/>
       <c r="R12" s="1"/>
       <c r="U12" s="1"/>
@@ -7326,7 +7368,7 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -7335,9 +7377,9 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="36"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="35"/>
       <c r="M13" s="8"/>
       <c r="R13" s="1"/>
       <c r="U13" s="1"/>
@@ -7345,7 +7387,7 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -7354,9 +7396,9 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="36"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="35"/>
       <c r="M14" s="8"/>
       <c r="R14" s="1"/>
       <c r="U14" s="1"/>
@@ -7364,7 +7406,7 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -7373,9 +7415,9 @@
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="36"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="35"/>
       <c r="M15" s="8"/>
       <c r="R15" s="1"/>
       <c r="U15" s="1"/>
@@ -7383,7 +7425,7 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -7392,9 +7434,9 @@
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="36"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="35"/>
       <c r="M16" s="8"/>
       <c r="R16" s="1"/>
       <c r="U16" s="1"/>
@@ -7402,7 +7444,7 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -7411,9 +7453,9 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="36"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="35"/>
       <c r="M17" s="8"/>
       <c r="R17" s="1"/>
       <c r="U17" s="1"/>
@@ -7421,7 +7463,7 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -7430,9 +7472,9 @@
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="36"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="35"/>
       <c r="M18" s="8"/>
       <c r="R18" s="1"/>
       <c r="U18" s="1"/>
@@ -7440,7 +7482,7 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -7449,9 +7491,9 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="36"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="35"/>
       <c r="M19" s="8"/>
       <c r="R19" s="1"/>
       <c r="U19" s="1"/>
@@ -7459,7 +7501,7 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -7468,9 +7510,9 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="36"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="35"/>
       <c r="M20" s="8"/>
       <c r="R20" s="1"/>
       <c r="U20" s="1"/>
@@ -7478,7 +7520,7 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -7487,9 +7529,9 @@
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="36"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="35"/>
       <c r="M21" s="8"/>
       <c r="R21" s="1"/>
       <c r="U21" s="1"/>
@@ -7497,7 +7539,7 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -7506,9 +7548,9 @@
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="36"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="35"/>
       <c r="M22" s="8"/>
       <c r="R22" s="1"/>
       <c r="U22" s="1"/>
@@ -7516,7 +7558,7 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -7525,9 +7567,9 @@
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="36"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="8"/>
       <c r="R23" s="1"/>
       <c r="U23" s="1"/>
@@ -7535,7 +7577,7 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -7544,9 +7586,9 @@
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="36"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="35"/>
       <c r="M24" s="8"/>
       <c r="R24" s="1"/>
       <c r="U24" s="1"/>
@@ -7554,7 +7596,7 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -7563,9 +7605,9 @@
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="36"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="35"/>
       <c r="M25" s="8"/>
       <c r="R25" s="1"/>
       <c r="U25" s="1"/>
@@ -7573,7 +7615,7 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -7582,9 +7624,9 @@
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="36"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="35"/>
       <c r="M26" s="8"/>
       <c r="R26" s="1"/>
       <c r="U26" s="1"/>
@@ -7592,7 +7634,7 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -7601,9 +7643,9 @@
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="36"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="35"/>
       <c r="M27" s="8"/>
       <c r="R27" s="1"/>
       <c r="U27" s="1"/>
@@ -7611,7 +7653,7 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -7620,9 +7662,9 @@
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="36"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="8"/>
       <c r="R28" s="1"/>
       <c r="U28" s="1"/>
@@ -7630,7 +7672,7 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="34"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -7639,9 +7681,9 @@
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="37"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="36"/>
       <c r="M29" s="8"/>
       <c r="R29" s="1"/>
       <c r="U29" s="1"/>
@@ -7651,20 +7693,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="30">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="A8:H8"/>
@@ -7681,6 +7709,20 @@
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <conditionalFormatting sqref="F5">
     <cfRule type="expression" dxfId="7" priority="11">
@@ -8783,12 +8825,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DED4A2CA298C634D861C291708FBD60B" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e9dad94b1987da259c39e2ef3e1e6b7a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -8902,11 +8938,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8915,22 +8953,11 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA75E35D-C619-45E2-A921-889D8A13153B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F3BCE80-3643-4525-B9BB-BDD667043D24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8946,18 +8973,33 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA75E35D-C619-45E2-A921-889D8A13153B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{659DA32C-5651-4ED5-961A-CEDF94F65B02}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF3B6C40-1D0B-4E20-A005-7908467DF3DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{659DA32C-5651-4ED5-961A-CEDF94F65B02}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/pages/images/Dataset_Model_Current_TEMPLATE.xlsx
+++ b/pages/images/Dataset_Model_Current_TEMPLATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\data.bcgov\work\Projects\DA_Operations\templates\dataset_logfile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Projects\DA_Operations\templates\dataset_logfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025199CF-968F-4BCA-A27E-A3E769B3834A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53592E4B-D075-443A-A9EE-BE81AC6EC3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="780" windowWidth="39270" windowHeight="14295" tabRatio="694" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="694" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset Model-New Dataset" sheetId="5" r:id="rId1"/>
@@ -2952,7 +2952,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="291">
   <si>
     <t>Yes</t>
   </si>
@@ -3840,15 +3840,6 @@
     <t>Source Data Location &amp; File Name</t>
   </si>
   <si>
-    <t>System ID</t>
-  </si>
-  <si>
-    <t>Feature Area Sqm</t>
-  </si>
-  <si>
-    <t>Feature Length M</t>
-  </si>
-  <si>
     <t>Layer File Presentation Standards</t>
   </si>
   <si>
@@ -3863,9 +3854,6 @@
   </si>
   <si>
     <t>Revised Feb.15, 2023</t>
-  </si>
-  <si>
-    <t>(usually turned off)</t>
   </si>
   <si>
     <r>
@@ -4731,7 +4719,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4838,9 +4826,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4887,12 +4872,42 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4917,6 +4932,111 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4926,111 +5046,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5052,6 +5067,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5065,36 +5089,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5934,9 +5928,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5974,9 +5968,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6009,26 +6003,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6061,26 +6038,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6257,43 +6217,42 @@
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="17.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.54296875" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" customWidth="1"/>
-    <col min="12" max="12" width="33.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="47" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="47" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="K1" s="52" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="51" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="77"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -6303,9 +6262,8 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -6318,115 +6276,108 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="7"/>
       <c r="G4" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="60"/>
-      <c r="K4" s="61" t="s">
+      <c r="H4" s="68"/>
+      <c r="I4" s="69"/>
+      <c r="K4" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="62"/>
-    </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="79" t="s">
         <v>265</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="7"/>
       <c r="G5" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60"/>
-      <c r="K5" s="63" t="s">
+      <c r="H5" s="68"/>
+      <c r="I5" s="69"/>
+      <c r="K5" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="L5" s="64"/>
-    </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="80"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="86"/>
       <c r="F6" s="7"/>
       <c r="G6" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="60"/>
-      <c r="K6" s="63" t="s">
+      <c r="H6" s="68"/>
+      <c r="I6" s="69"/>
+      <c r="K6" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="L6" s="64"/>
-    </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="92" t="s">
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="77"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="83"/>
       <c r="F7" s="7"/>
       <c r="G7" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
-      <c r="K7" s="65" t="s">
-        <v>288</v>
-      </c>
-      <c r="L7" s="66"/>
-    </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="41.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="93"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69"/>
+      <c r="K7" s="62" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="99"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="86"/>
       <c r="F8" s="7"/>
       <c r="G8" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="60"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="69"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="41"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -6439,82 +6390,74 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="84" t="s">
+    </row>
+    <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="90" t="s">
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="96" t="s">
         <v>259</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="47" t="s">
+      <c r="E11" s="91"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="46" t="s">
         <v>227</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="46"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="93"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="11"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="20"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-    </row>
-    <row r="15" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
+    </row>
+    <row r="15" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="111" t="s">
         <v>241</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="121" t="s">
+      <c r="B15" s="112"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="124" t="s">
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="J15" s="101" t="s">
+      <c r="J15" s="107" t="s">
         <v>242</v>
       </c>
-      <c r="K15" s="101"/>
+      <c r="K15" s="107"/>
       <c r="L15" s="48" t="s">
-        <v>289</v>
-      </c>
-      <c r="M15" s="49" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>6</v>
       </c>
@@ -6524,36 +6467,33 @@
       <c r="C16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="125" t="s">
+      <c r="D16" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="125" t="s">
+      <c r="E16" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="125" t="s">
+      <c r="F16" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="125" t="s">
+      <c r="G16" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="H16" s="125" t="s">
+      <c r="H16" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="I16" s="126" t="s">
+      <c r="I16" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="J16" s="72" t="s">
+      <c r="J16" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="K16" s="72"/>
-      <c r="L16" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="M16" s="22" t="s">
+      <c r="K16" s="78"/>
+      <c r="L16" s="22" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="13"/>
@@ -6576,376 +6516,355 @@
       <c r="I17" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="J17" s="102" t="s">
+      <c r="J17" s="108" t="s">
         <v>232</v>
       </c>
-      <c r="K17" s="102"/>
-      <c r="L17" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="M17" s="41"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="108"/>
+      <c r="L17" s="40"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120" t="e">
+      <c r="D18" s="56"/>
+      <c r="E18" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56" t="e">
         <f>VLOOKUP($D18,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J18" s="63"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120" t="e">
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56" t="e">
         <f>VLOOKUP($D19,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="21"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J19" s="63"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120" t="e">
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56" t="e">
         <f>VLOOKUP($D20,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J20" s="57"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="21"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J20" s="63"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120" t="e">
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56" t="e">
         <f>VLOOKUP($D21,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J21" s="57"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J21" s="63"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="21"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120" t="e">
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56" t="e">
         <f>VLOOKUP($D22,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="21"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J22" s="63"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="21"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120" t="e">
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56" t="e">
         <f>VLOOKUP($D23,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J23" s="57"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="21"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J23" s="63"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="21"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="120" t="e">
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56" t="e">
         <f>VLOOKUP($D24,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J24" s="57"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="21"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J24" s="63"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="120" t="e">
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56" t="e">
         <f>VLOOKUP($D25,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J25" s="57"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="21"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J25" s="63"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="21"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120" t="e">
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56" t="e">
         <f>VLOOKUP($D26,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J26" s="57"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="21"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J26" s="63"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120" t="e">
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56" t="e">
         <f>VLOOKUP($D27,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J27" s="57"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="21"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J27" s="63"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="21"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="120" t="e">
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56" t="e">
         <f>VLOOKUP($D28,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J28" s="57"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="21"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J28" s="63"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="21"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="120" t="e">
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56" t="e">
         <f>VLOOKUP($D29,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J29" s="57"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="21"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J29" s="63"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="21"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
       <c r="C30" s="13"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="120" t="e">
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56" t="e">
         <f>VLOOKUP($D30,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J30" s="57"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="21"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J30" s="63"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="21"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="120" t="e">
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56" t="e">
         <f>VLOOKUP($D31,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="21"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J31" s="63"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="21"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="120" t="e">
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56" t="e">
         <f>VLOOKUP($D32,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J32" s="57"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="21"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J32" s="63"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="21"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="13"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="120" t="e">
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56" t="e">
         <f>VLOOKUP($D33,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J33" s="57"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="21"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J33" s="63"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="21"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="13"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="120" t="e">
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56" t="e">
         <f>VLOOKUP($D34,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J34" s="57"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="21"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J34" s="63"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="21"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="13"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="120" t="e">
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56" t="e">
         <f>VLOOKUP($D35,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J35" s="57"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="21"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J35" s="63"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="21"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="13"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="120" t="e">
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56" t="e">
         <f>VLOOKUP($D36,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J36" s="57"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="21"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J36" s="63"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="21"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="13"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="120" t="e">
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56" t="e">
         <f>VLOOKUP($D37,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J37" s="57"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="21"/>
-    </row>
-    <row r="38" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J37" s="63"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="21"/>
+    </row>
+    <row r="38" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="13"/>
@@ -6965,21 +6884,18 @@
       <c r="I38" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J38" s="103" t="s">
+      <c r="J38" s="109" t="s">
         <v>235</v>
       </c>
-      <c r="K38" s="104"/>
-      <c r="L38" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="M38" s="8"/>
-    </row>
-    <row r="39" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="94" t="s">
+      <c r="K38" s="110"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="95"/>
-      <c r="C39" s="96"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="102"/>
       <c r="D39" s="3" t="s">
         <v>61</v>
       </c>
@@ -6998,19 +6914,16 @@
       <c r="I39" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J39" s="103" t="s">
+      <c r="J39" s="109" t="s">
         <v>233</v>
       </c>
-      <c r="K39" s="104"/>
-      <c r="L39" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="M39" s="8"/>
-    </row>
-    <row r="40" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="97"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="99"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="103"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="105"/>
       <c r="D40" s="3" t="s">
         <v>62</v>
       </c>
@@ -7029,19 +6942,16 @@
       <c r="I40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J40" s="103" t="s">
+      <c r="J40" s="109" t="s">
         <v>234</v>
       </c>
-      <c r="K40" s="104"/>
-      <c r="L40" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="M40" s="8"/>
-    </row>
-    <row r="41" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="97"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="99"/>
+      <c r="K40" s="110"/>
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="103"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="105"/>
       <c r="D41" s="3" t="s">
         <v>7</v>
       </c>
@@ -7060,19 +6970,16 @@
       <c r="I41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J41" s="103" t="s">
+      <c r="J41" s="109" t="s">
         <v>236</v>
       </c>
-      <c r="K41" s="104"/>
-      <c r="L41" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="M41" s="8"/>
-    </row>
-    <row r="42" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="97"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="99"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="103"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="105"/>
       <c r="D42" s="3" t="s">
         <v>64</v>
       </c>
@@ -7087,30 +6994,27 @@
       <c r="I42" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J42" s="103" t="s">
+      <c r="J42" s="109" t="s">
         <v>237</v>
       </c>
-      <c r="K42" s="104"/>
-      <c r="L42" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="M42" s="8"/>
-    </row>
-    <row r="44" spans="1:13" s="33" customFormat="1" ht="68.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="100" t="s">
+      <c r="K42" s="110"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="44" spans="1:12" s="33" customFormat="1" ht="68.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="106" t="s">
         <v>262</v>
       </c>
-      <c r="B44" s="100"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="33"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="51">
+  <mergeCells count="47">
     <mergeCell ref="A39:C42"/>
     <mergeCell ref="A44:E44"/>
     <mergeCell ref="J18:K18"/>
@@ -7126,6 +7030,7 @@
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="A15:C15"/>
+    <mergeCell ref="J21:K21"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="A5:A6"/>
@@ -7141,15 +7046,10 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J21:K21"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="H8:I8"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="J37:K37"/>
@@ -7190,7 +7090,7 @@
   </conditionalFormatting>
   <dataValidations xWindow="81" yWindow="814" count="4">
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="A15 D15 A16:H16 J16" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The ID field is an unique value that may be system generated or user specified" sqref="J17 M17" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The ID field is an unique value that may be system generated or user specified" sqref="J17 L17" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18:A38" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
@@ -7203,10 +7103,10 @@
   <hyperlinks>
     <hyperlink ref="K5" r:id="rId1" display="Naming and Describing Standards" xr:uid="{D731A6AF-65A1-40CB-A680-2A515FF6B33A}"/>
     <hyperlink ref="K6" r:id="rId2" display="Data Classification Hierarchy" xr:uid="{C1F6D617-6011-4927-B768-CF82B534719C}"/>
-    <hyperlink ref="K6:L6" r:id="rId3" display="Common Data Standards and Guidelines" xr:uid="{15ACB1BE-E758-44C0-8CD3-656A509C481F}"/>
-    <hyperlink ref="K5:L5" r:id="rId4" display="BC Geographic Warehouse - Standards and Guidelines" xr:uid="{00960C88-487A-4D82-86DA-99D5C98D8016}"/>
+    <hyperlink ref="K6" r:id="rId3" xr:uid="{15ACB1BE-E758-44C0-8CD3-656A509C481F}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{00960C88-487A-4D82-86DA-99D5C98D8016}"/>
     <hyperlink ref="K7" r:id="rId5" display="Data Classification Hierarchy" xr:uid="{DB3924D1-6581-43AA-B335-301D77DAEF9E}"/>
-    <hyperlink ref="K7:L7" r:id="rId6" display="Layer File Presentation Standards" xr:uid="{2E44DB67-5867-49D8-BC35-0787AB4EFD66}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{2E44DB67-5867-49D8-BC35-0787AB4EFD66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId7"/>
@@ -7249,13 +7149,13 @@
           <x14:formula1>
             <xm:f>'Drop Downs'!$N$1:$N$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H6:I6</xm:sqref>
+          <xm:sqref>H7:I7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3E38935E-84A3-4BEC-B04E-68E6F8CC64F9}">
           <x14:formula1>
             <xm:f>'Drop Downs'!$L$1:$L$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H7:I9</xm:sqref>
+          <xm:sqref>H8:I9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CFEC3EE6-7D0F-48DD-B0B2-E6A950E9BE6A}">
           <x14:formula1>
@@ -7280,45 +7180,45 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="30.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="30.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="41.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="34.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="35.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.26953125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="41.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.26953125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="34.1796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="35.453125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1796875" style="1" customWidth="1"/>
     <col min="15" max="15" width="28" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2.28515625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="34.5703125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="43.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="2.42578125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="42.42578125" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="8.26953125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.81640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.26953125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="34.54296875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="43.453125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="2.453125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="42.453125" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
         <v>282</v>
       </c>
       <c r="B1"/>
-      <c r="J1" s="54" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="53" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="37" t="s">
         <v>248</v>
       </c>
@@ -7348,8 +7248,8 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
+    <row r="3" spans="1:26" s="5" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="52"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -7376,7 +7276,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -7386,10 +7286,10 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="62"/>
+      <c r="K4" s="71"/>
       <c r="L4" s="25"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
@@ -7406,22 +7306,22 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="109" t="s">
+    <row r="5" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="118" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="112" t="s">
+      <c r="B5" s="120"/>
+      <c r="C5" s="124" t="s">
         <v>260</v>
       </c>
-      <c r="D5" s="113"/>
+      <c r="D5" s="125"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="72" t="s">
         <v>238</v>
       </c>
-      <c r="K5" s="64"/>
+      <c r="K5" s="73"/>
       <c r="L5" s="20"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
@@ -7436,19 +7336,19 @@
       <c r="Y5" s="25"/>
       <c r="Z5" s="11"/>
     </row>
-    <row r="6" spans="1:26" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="105"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115"/>
+    <row r="6" spans="1:26" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="114"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="127"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="72" t="s">
         <v>239</v>
       </c>
-      <c r="K6" s="64"/>
+      <c r="K6" s="73"/>
       <c r="L6" s="20"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -7463,59 +7363,59 @@
       <c r="Y6" s="20"/>
       <c r="Z6" s="12"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J7" s="65" t="s">
-        <v>288</v>
-      </c>
-      <c r="K7" s="66"/>
+    <row r="7" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="74" t="s">
+        <v>285</v>
+      </c>
+      <c r="K7" s="75"/>
       <c r="L7" s="20"/>
       <c r="Y7" s="20"/>
     </row>
-    <row r="8" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="118" t="s">
-        <v>294</v>
-      </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="60"/>
+    <row r="8" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="121" t="s">
+        <v>290</v>
+      </c>
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="69"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="Y8" s="20"/>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="Y9" s="20"/>
     </row>
-    <row r="10" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="109" t="s">
+    <row r="10" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="118" t="s">
         <v>255</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="111"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="120"/>
       <c r="I11" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="J11" s="116" t="s">
+      <c r="J11" s="128" t="s">
         <v>254</v>
       </c>
-      <c r="K11" s="116"/>
-      <c r="L11" s="48" t="s">
-        <v>289</v>
+      <c r="K11" s="128"/>
+      <c r="L11" s="47" t="s">
+        <v>286</v>
       </c>
       <c r="M11" s="31" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>252</v>
       </c>
@@ -7543,18 +7443,18 @@
       <c r="I12" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="J12" s="72" t="s">
+      <c r="J12" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="K12" s="72"/>
-      <c r="L12" s="45" t="s">
-        <v>290</v>
+      <c r="K12" s="78"/>
+      <c r="L12" s="44" t="s">
+        <v>287</v>
       </c>
       <c r="M12" s="32" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>54</v>
       </c>
@@ -7566,12 +7466,12 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="55"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="54"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -7581,12 +7481,12 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="55"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="54"/>
       <c r="M14" s="26"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -7596,12 +7496,12 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="55"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="54"/>
       <c r="M15" s="26"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -7611,12 +7511,12 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="55"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="54"/>
       <c r="M16" s="26"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -7626,12 +7526,12 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="55"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="54"/>
       <c r="M17" s="26"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -7641,12 +7541,12 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="55"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="54"/>
       <c r="M18" s="26"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -7656,12 +7556,12 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="55"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="54"/>
       <c r="M19" s="26"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -7671,12 +7571,12 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="55"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="54"/>
       <c r="M20" s="26"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -7686,12 +7586,12 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="55"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="54"/>
       <c r="M21" s="26"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -7701,12 +7601,12 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="55"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="54"/>
       <c r="M22" s="26"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -7716,12 +7616,12 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="55"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="54"/>
       <c r="M23" s="26"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -7731,12 +7631,12 @@
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="55"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="54"/>
       <c r="M24" s="26"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -7746,12 +7646,12 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="55"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="54"/>
       <c r="M25" s="26"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -7761,12 +7661,12 @@
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="55"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="54"/>
       <c r="M26" s="26"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -7776,12 +7676,12 @@
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="55"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="54"/>
       <c r="M27" s="26"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -7791,12 +7691,12 @@
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="55"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="54"/>
       <c r="M28" s="26"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -7806,12 +7706,12 @@
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="55"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="54"/>
       <c r="M29" s="26"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -7821,12 +7721,12 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="55"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="54"/>
       <c r="M30" s="26"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -7836,12 +7736,12 @@
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="55"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="54"/>
       <c r="M31" s="26"/>
     </row>
-    <row r="32" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="24"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -7851,9 +7751,9 @@
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="56"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="55"/>
       <c r="M32" s="27"/>
     </row>
   </sheetData>
@@ -7864,18 +7764,18 @@
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J12:K12"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="J32:K32"/>
@@ -7996,19 +7896,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.1796875" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8052,7 +7952,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8096,7 +7996,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -8134,7 +8034,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -8166,7 +8066,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -8183,7 +8083,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>48</v>
       </c>
@@ -8197,127 +8097,127 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G31" t="s">
         <v>38</v>
       </c>
@@ -8332,17 +8232,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -8350,7 +8250,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -8358,7 +8258,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -8366,7 +8266,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -8374,7 +8274,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -8382,7 +8282,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -8390,7 +8290,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -8398,7 +8298,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -8406,7 +8306,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -8414,7 +8314,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -8422,7 +8322,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -8430,7 +8330,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -8438,7 +8338,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -8446,7 +8346,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -8454,7 +8354,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -8462,7 +8362,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -8470,7 +8370,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -8478,7 +8378,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -8486,7 +8386,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -8494,7 +8394,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>110</v>
       </c>
@@ -8502,7 +8402,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>112</v>
       </c>
@@ -8510,7 +8410,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -8518,7 +8418,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -8526,7 +8426,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>115</v>
       </c>
@@ -8534,7 +8434,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -8542,7 +8442,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -8550,7 +8450,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>119</v>
       </c>
@@ -8558,7 +8458,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -8566,7 +8466,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -8574,7 +8474,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>125</v>
       </c>
@@ -8582,7 +8482,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>127</v>
       </c>
@@ -8590,7 +8490,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>129</v>
       </c>
@@ -8598,7 +8498,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -8606,7 +8506,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>133</v>
       </c>
@@ -8614,7 +8514,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>135</v>
       </c>
@@ -8622,7 +8522,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>137</v>
       </c>
@@ -8630,7 +8530,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>139</v>
       </c>
@@ -8638,7 +8538,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>141</v>
       </c>
@@ -8646,7 +8546,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>143</v>
       </c>
@@ -8654,7 +8554,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -8662,7 +8562,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>147</v>
       </c>
@@ -8670,7 +8570,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -8678,7 +8578,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>151</v>
       </c>
@@ -8686,7 +8586,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>153</v>
       </c>
@@ -8694,7 +8594,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>155</v>
       </c>
@@ -8702,7 +8602,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>157</v>
       </c>
@@ -8710,7 +8610,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>159</v>
       </c>
@@ -8718,7 +8618,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>161</v>
       </c>
@@ -8726,7 +8626,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>163</v>
       </c>
@@ -8734,7 +8634,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>165</v>
       </c>
@@ -8742,7 +8642,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>167</v>
       </c>
@@ -8750,7 +8650,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>169</v>
       </c>
@@ -8758,7 +8658,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>171</v>
       </c>
@@ -8766,7 +8666,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>173</v>
       </c>
@@ -8774,7 +8674,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -8782,7 +8682,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>175</v>
       </c>
@@ -8790,7 +8690,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>177</v>
       </c>
@@ -8798,7 +8698,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>179</v>
       </c>
@@ -8806,7 +8706,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>181</v>
       </c>
@@ -8814,7 +8714,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>183</v>
       </c>
@@ -8822,7 +8722,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -8830,7 +8730,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>187</v>
       </c>
@@ -8838,7 +8738,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>189</v>
       </c>
@@ -8846,7 +8746,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>191</v>
       </c>
@@ -8854,7 +8754,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -8862,7 +8762,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>195</v>
       </c>
@@ -8870,7 +8770,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>197</v>
       </c>
@@ -8878,7 +8778,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>199</v>
       </c>
@@ -8886,7 +8786,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>201</v>
       </c>
@@ -8894,7 +8794,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>203</v>
       </c>
@@ -8902,7 +8802,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>205</v>
       </c>
@@ -8910,7 +8810,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>207</v>
       </c>
@@ -8918,7 +8818,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>209</v>
       </c>
@@ -8926,7 +8826,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>211</v>
       </c>
@@ -8934,7 +8834,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>213</v>
       </c>
@@ -8942,7 +8842,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>215</v>
       </c>
@@ -8950,7 +8850,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>217</v>
       </c>
@@ -8958,7 +8858,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>219</v>
       </c>
@@ -8966,7 +8866,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>221</v>
       </c>
@@ -8974,7 +8874,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>223</v>
       </c>
@@ -8982,7 +8882,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>225</v>
       </c>
@@ -8999,10 +8899,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9011,13 +8907,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DED4A2CA298C634D861C291708FBD60B" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e9dad94b1987da259c39e2ef3e1e6b7a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -9131,15 +9027,11 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF3B6C40-1D0B-4E20-A005-7908467DF3DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{659DA32C-5651-4ED5-961A-CEDF94F65B02}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -9147,7 +9039,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA75E35D-C619-45E2-A921-889D8A13153B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -9162,7 +9054,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F3BCE80-3643-4525-B9BB-BDD667043D24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9176,4 +9068,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF3B6C40-1D0B-4E20-A005-7908467DF3DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/pages/images/Dataset_Model_Current_TEMPLATE.xlsx
+++ b/pages/images/Dataset_Model_Current_TEMPLATE.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Projects\DA_Operations\templates\dataset_logfile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MDWILKIE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53592E4B-D075-443A-A9EE-BE81AC6EC3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF32037C-C215-49CD-8802-FF601974F541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="694" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="694" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset Model-New Dataset" sheetId="5" r:id="rId1"/>
     <sheet name="Dataset Model-Modify Dataset" sheetId="15" r:id="rId2"/>
-    <sheet name="Drop Downs" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="Drop Downs" sheetId="4" r:id="rId3"/>
     <sheet name="abbreviations" sheetId="13" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -4893,12 +4893,132 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4908,11 +5028,41 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4920,132 +5070,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="30" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5065,30 +5089,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5096,7 +5096,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="10">
     <dxf>
       <font>
         <b/>
@@ -5105,31 +5105,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5151,11 +5127,6 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5182,20 +5153,11 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5212,7 +5174,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5222,11 +5184,13 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -6219,27 +6183,27 @@
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="35.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="17.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5234375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.47265625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.5234375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.15625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.26171875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5234375" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" customWidth="1"/>
     <col min="12" max="12" width="47" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="13" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="39" t="s">
         <v>281</v>
       </c>
@@ -6247,12 +6211,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="77"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -6263,7 +6227,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -6277,93 +6241,93 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="7"/>
       <c r="G4" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="104"/>
       <c r="K4" s="60" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="79" t="s">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="82" t="s">
         <v>265</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="86"/>
       <c r="F5" s="7"/>
       <c r="G5" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="69"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104"/>
       <c r="K5" s="61" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="80"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86"/>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="83"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
       <c r="F6" s="7"/>
       <c r="G6" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="69"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="104"/>
       <c r="K6" s="61" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="98" t="s">
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="101" t="s">
         <v>280</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="83"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="7"/>
       <c r="G7" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="104"/>
       <c r="K7" s="62" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="99"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86"/>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="102"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="89"/>
       <c r="F8" s="7"/>
       <c r="G8" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="69"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="104"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="41"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -6377,7 +6341,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -6391,17 +6355,17 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="90" t="s">
+    <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="96" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="99" t="s">
         <v>259</v>
       </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="95"/>
       <c r="G11" s="46" t="s">
         <v>227</v>
       </c>
@@ -6411,13 +6375,13 @@
       <c r="K11" s="50"/>
       <c r="L11" s="11"/>
     </row>
-    <row r="12" spans="1:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="93"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="95"/>
+    <row r="12" spans="1:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="96"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="98"/>
       <c r="G12" s="45"/>
       <c r="H12" s="11"/>
       <c r="I12" s="12"/>
@@ -6425,39 +6389,39 @@
       <c r="K12" s="49"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="J13" s="49"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="111" t="s">
+    <row r="15" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="B15" s="112"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="65" t="s">
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="67"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="107"/>
       <c r="I15" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="J15" s="107" t="s">
+      <c r="J15" s="72" t="s">
         <v>242</v>
       </c>
-      <c r="K15" s="107"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="48" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="16" t="s">
         <v>6</v>
       </c>
@@ -6485,15 +6449,15 @@
       <c r="I16" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="J16" s="78" t="s">
+      <c r="J16" s="81" t="s">
         <v>245</v>
       </c>
-      <c r="K16" s="78"/>
+      <c r="K16" s="81"/>
       <c r="L16" s="22" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="13"/>
@@ -6516,13 +6480,13 @@
       <c r="I17" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="J17" s="108" t="s">
+      <c r="J17" s="73" t="s">
         <v>232</v>
       </c>
-      <c r="K17" s="108"/>
+      <c r="K17" s="73"/>
       <c r="L17" s="40"/>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="13"/>
@@ -6537,11 +6501,11 @@
         <f>VLOOKUP($D18,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J18" s="63"/>
-      <c r="K18" s="64"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="13"/>
@@ -6554,11 +6518,11 @@
         <f>VLOOKUP($D19,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="71"/>
       <c r="L19" s="21"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="13"/>
@@ -6571,11 +6535,11 @@
         <f>VLOOKUP($D20,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J20" s="63"/>
-      <c r="K20" s="64"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="71"/>
       <c r="L20" s="21"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="13"/>
@@ -6588,11 +6552,11 @@
         <f>VLOOKUP($D21,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J21" s="63"/>
-      <c r="K21" s="64"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="71"/>
       <c r="L21" s="21"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="13"/>
@@ -6605,11 +6569,11 @@
         <f>VLOOKUP($D22,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J22" s="63"/>
-      <c r="K22" s="64"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="71"/>
       <c r="L22" s="21"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="13"/>
@@ -6622,11 +6586,11 @@
         <f>VLOOKUP($D23,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J23" s="63"/>
-      <c r="K23" s="64"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
       <c r="L23" s="21"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="13"/>
@@ -6639,11 +6603,11 @@
         <f>VLOOKUP($D24,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="71"/>
       <c r="L24" s="21"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="13"/>
@@ -6656,11 +6620,11 @@
         <f>VLOOKUP($D25,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J25" s="63"/>
-      <c r="K25" s="64"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
       <c r="L25" s="21"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="13"/>
@@ -6673,11 +6637,11 @@
         <f>VLOOKUP($D26,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J26" s="63"/>
-      <c r="K26" s="64"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="71"/>
       <c r="L26" s="21"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="13"/>
@@ -6690,11 +6654,11 @@
         <f>VLOOKUP($D27,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J27" s="63"/>
-      <c r="K27" s="64"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
       <c r="L27" s="21"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="13"/>
@@ -6707,11 +6671,11 @@
         <f>VLOOKUP($D28,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J28" s="63"/>
-      <c r="K28" s="64"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="71"/>
       <c r="L28" s="21"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="13"/>
@@ -6724,11 +6688,11 @@
         <f>VLOOKUP($D29,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J29" s="63"/>
-      <c r="K29" s="64"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="71"/>
       <c r="L29" s="21"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
       <c r="C30" s="13"/>
@@ -6741,11 +6705,11 @@
         <f>VLOOKUP($D30,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J30" s="63"/>
-      <c r="K30" s="64"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="71"/>
       <c r="L30" s="21"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="13"/>
@@ -6758,11 +6722,11 @@
         <f>VLOOKUP($D31,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J31" s="63"/>
-      <c r="K31" s="64"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="71"/>
       <c r="L31" s="21"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="13"/>
@@ -6775,11 +6739,11 @@
         <f>VLOOKUP($D32,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J32" s="63"/>
-      <c r="K32" s="64"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="71"/>
       <c r="L32" s="21"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="13"/>
@@ -6792,11 +6756,11 @@
         <f>VLOOKUP($D33,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J33" s="63"/>
-      <c r="K33" s="64"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="71"/>
       <c r="L33" s="21"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="13"/>
@@ -6809,11 +6773,11 @@
         <f>VLOOKUP($D34,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J34" s="63"/>
-      <c r="K34" s="64"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="71"/>
       <c r="L34" s="21"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="13"/>
@@ -6826,11 +6790,11 @@
         <f>VLOOKUP($D35,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J35" s="63"/>
-      <c r="K35" s="64"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="71"/>
       <c r="L35" s="21"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="13"/>
@@ -6843,11 +6807,11 @@
         <f>VLOOKUP($D36,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J36" s="63"/>
-      <c r="K36" s="64"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="71"/>
       <c r="L36" s="21"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="13"/>
@@ -6860,11 +6824,11 @@
         <f>VLOOKUP($D37,abbreviations!$A$1:$B$99999,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J37" s="63"/>
-      <c r="K37" s="64"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="71"/>
       <c r="L37" s="21"/>
     </row>
-    <row r="38" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="13"/>
@@ -6884,18 +6848,18 @@
       <c r="I38" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J38" s="109" t="s">
+      <c r="J38" s="74" t="s">
         <v>235</v>
       </c>
-      <c r="K38" s="110"/>
+      <c r="K38" s="75"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="100" t="s">
+    <row r="39" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="101"/>
-      <c r="C39" s="102"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="3" t="s">
         <v>61</v>
       </c>
@@ -6914,16 +6878,16 @@
       <c r="I39" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J39" s="109" t="s">
+      <c r="J39" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="K39" s="110"/>
+      <c r="K39" s="75"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="103"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="105"/>
+    <row r="40" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="66"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="3" t="s">
         <v>62</v>
       </c>
@@ -6942,16 +6906,16 @@
       <c r="I40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J40" s="109" t="s">
+      <c r="J40" s="74" t="s">
         <v>234</v>
       </c>
-      <c r="K40" s="110"/>
+      <c r="K40" s="75"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="103"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="105"/>
+    <row r="41" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="66"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="3" t="s">
         <v>7</v>
       </c>
@@ -6970,16 +6934,16 @@
       <c r="I41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J41" s="109" t="s">
+      <c r="J41" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="K41" s="110"/>
+      <c r="K41" s="75"/>
       <c r="L41" s="8"/>
     </row>
-    <row r="42" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="103"/>
-      <c r="B42" s="104"/>
-      <c r="C42" s="105"/>
+    <row r="42" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="66"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="68"/>
       <c r="D42" s="3" t="s">
         <v>64</v>
       </c>
@@ -6994,27 +6958,58 @@
       <c r="I42" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J42" s="109" t="s">
+      <c r="J42" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="K42" s="110"/>
+      <c r="K42" s="75"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="44" spans="1:12" s="33" customFormat="1" ht="68.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="106" t="s">
+    <row r="44" spans="1:12" s="33" customFormat="1" ht="68.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="69" t="s">
         <v>262</v>
       </c>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A45" s="33"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="47">
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="A39:C42"/>
     <mergeCell ref="A44:E44"/>
     <mergeCell ref="J18:K18"/>
@@ -7031,61 +7026,30 @@
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
   </mergeCells>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>LEN(A12) &gt;30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>LEN(D12) &gt;30</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D18:D38">
-    <cfRule type="expression" dxfId="12" priority="16">
+    <cfRule type="expression" dxfId="7" priority="16">
       <formula>LEN(D18)&gt;30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I38">
-    <cfRule type="expression" dxfId="11" priority="19">
-      <formula>LEN(I18)&gt;10</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>LEN(G12) &gt;30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="9" priority="1">
-      <formula>LEN(D12) &gt;30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="8" priority="2">
-      <formula>LEN(A12) &gt;30</formula>
+  <conditionalFormatting sqref="I18:I38">
+    <cfRule type="expression" dxfId="5" priority="19">
+      <formula>LEN(I18)&gt;10</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="81" yWindow="814" count="4">
@@ -7176,40 +7140,40 @@
   </sheetPr>
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="30.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="30.7890625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.15625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5234375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.26953125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="41.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.26953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="34.1796875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="35.453125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.26171875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="41.15625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.26171875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="34.15625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="35.47265625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.15625" style="1" customWidth="1"/>
     <col min="15" max="15" width="28" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.26953125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.81640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.81640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2.26953125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="34.54296875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="43.453125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="2.453125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="42.453125" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.1796875" style="1"/>
+    <col min="16" max="16" width="8.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7890625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7890625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.15625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.26171875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="34.5234375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="43.47265625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="2.47265625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="42.47265625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="39" t="s">
         <v>282</v>
       </c>
@@ -7218,7 +7182,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="37" t="s">
         <v>248</v>
       </c>
@@ -7248,7 +7212,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" s="5" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="52"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -7276,7 +7240,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -7286,10 +7250,10 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="70" t="s">
+      <c r="J4" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="71"/>
+      <c r="K4" s="121"/>
       <c r="L4" s="25"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
@@ -7306,22 +7270,22 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="118" t="s">
+    <row r="5" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="126" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="124" t="s">
+      <c r="B5" s="128"/>
+      <c r="C5" s="111" t="s">
         <v>260</v>
       </c>
-      <c r="D5" s="125"/>
+      <c r="D5" s="112"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="118" t="s">
         <v>238</v>
       </c>
-      <c r="K5" s="73"/>
+      <c r="K5" s="119"/>
       <c r="L5" s="20"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
@@ -7336,19 +7300,19 @@
       <c r="Y5" s="25"/>
       <c r="Z5" s="11"/>
     </row>
-    <row r="6" spans="1:26" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="114"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="127"/>
+    <row r="6" spans="1:26" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="114"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="118" t="s">
         <v>239</v>
       </c>
-      <c r="K6" s="73"/>
+      <c r="K6" s="119"/>
       <c r="L6" s="20"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -7363,51 +7327,51 @@
       <c r="Y6" s="20"/>
       <c r="Z6" s="12"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J7" s="74" t="s">
+    <row r="7" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J7" s="116" t="s">
         <v>285</v>
       </c>
-      <c r="K7" s="75"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="20"/>
       <c r="Y7" s="20"/>
     </row>
-    <row r="8" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="121" t="s">
+    <row r="8" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="108" t="s">
         <v>290</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="69"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="104"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="Y8" s="20"/>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="Y9" s="20"/>
     </row>
-    <row r="10" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118" t="s">
+    <row r="10" spans="1:26" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="126" t="s">
         <v>255</v>
       </c>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="120"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="128"/>
       <c r="I11" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="J11" s="128" t="s">
+      <c r="J11" s="115" t="s">
         <v>254</v>
       </c>
-      <c r="K11" s="128"/>
+      <c r="K11" s="115"/>
       <c r="L11" s="47" t="s">
         <v>286</v>
       </c>
@@ -7415,7 +7379,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
         <v>252</v>
       </c>
@@ -7443,10 +7407,10 @@
       <c r="I12" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="J12" s="78" t="s">
+      <c r="J12" s="81" t="s">
         <v>245</v>
       </c>
-      <c r="K12" s="78"/>
+      <c r="K12" s="81"/>
       <c r="L12" s="44" t="s">
         <v>287</v>
       </c>
@@ -7454,7 +7418,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A13" s="23" t="s">
         <v>54</v>
       </c>
@@ -7466,12 +7430,12 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="64"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="71"/>
       <c r="L13" s="54"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A14" s="23"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -7481,12 +7445,12 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="71"/>
       <c r="L14" s="54"/>
       <c r="M14" s="26"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A15" s="23"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -7496,12 +7460,12 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="64"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="71"/>
       <c r="L15" s="54"/>
       <c r="M15" s="26"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A16" s="23"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -7511,12 +7475,12 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="64"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="71"/>
       <c r="L16" s="54"/>
       <c r="M16" s="26"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A17" s="23"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -7526,12 +7490,12 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="64"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="71"/>
       <c r="L17" s="54"/>
       <c r="M17" s="26"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A18" s="23"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -7541,12 +7505,12 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="64"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="54"/>
       <c r="M18" s="26"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A19" s="23"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -7556,12 +7520,12 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="71"/>
       <c r="L19" s="54"/>
       <c r="M19" s="26"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A20" s="23"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -7571,12 +7535,12 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="64"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="71"/>
       <c r="L20" s="54"/>
       <c r="M20" s="26"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A21" s="23"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -7586,12 +7550,12 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="64"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="71"/>
       <c r="L21" s="54"/>
       <c r="M21" s="26"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A22" s="23"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -7601,12 +7565,12 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="64"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="71"/>
       <c r="L22" s="54"/>
       <c r="M22" s="26"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A23" s="23"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -7616,12 +7580,12 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="64"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
       <c r="L23" s="54"/>
       <c r="M23" s="26"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A24" s="23"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -7631,12 +7595,12 @@
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="71"/>
       <c r="L24" s="54"/>
       <c r="M24" s="26"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A25" s="23"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -7646,12 +7610,12 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="64"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
       <c r="L25" s="54"/>
       <c r="M25" s="26"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A26" s="23"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -7661,12 +7625,12 @@
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="64"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="71"/>
       <c r="L26" s="54"/>
       <c r="M26" s="26"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A27" s="23"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -7676,12 +7640,12 @@
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="64"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="71"/>
       <c r="L27" s="54"/>
       <c r="M27" s="26"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A28" s="23"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -7691,12 +7655,12 @@
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="64"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="71"/>
       <c r="L28" s="54"/>
       <c r="M28" s="26"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A29" s="23"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -7706,12 +7670,12 @@
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="64"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="71"/>
       <c r="L29" s="54"/>
       <c r="M29" s="26"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A30" s="23"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -7721,12 +7685,12 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="64"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="71"/>
       <c r="L30" s="54"/>
       <c r="M30" s="26"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A31" s="23"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -7736,12 +7700,12 @@
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="64"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="71"/>
       <c r="L31" s="54"/>
       <c r="M31" s="26"/>
     </row>
-    <row r="32" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="24"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -7751,31 +7715,14 @@
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="117"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="125"/>
       <c r="L32" s="55"/>
       <c r="M32" s="27"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="33">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="J32:K32"/>
@@ -7792,43 +7739,43 @@
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="expression" dxfId="4" priority="12">
+      <formula>LEN(A6) &gt;30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:D32">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>LEN(B13)&gt;30</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>LEN(F6) &gt;30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="6" priority="12">
-      <formula>LEN(A6) &gt;30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13 B17:B32 D13:D32">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>LEN(B13)&gt;30</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I13:I32">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>LEN(I13)&gt;10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I32">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B16">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>LEN(B14)&gt;30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13 C17:C32">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>LEN(C13)&gt;30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C16">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>LEN(C14)&gt;30</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -7872,7 +7819,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6C9F9DD1-D215-486C-98DE-B297B043F988}">
           <x14:formula1>
-            <xm:f>'Drop Downs'!$F$1:$F$4</xm:f>
+            <xm:f>'Drop Downs'!$F$1:$F$6</xm:f>
           </x14:formula1>
           <xm:sqref>E13:E32</xm:sqref>
         </x14:dataValidation>
@@ -7896,19 +7843,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.1796875" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.15625" customWidth="1"/>
+    <col min="8" max="8" width="18.47265625" customWidth="1"/>
+    <col min="9" max="9" width="9.7890625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" customWidth="1"/>
+    <col min="13" max="13" width="13.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7952,7 +7899,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7996,7 +7943,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -8034,7 +7981,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -8066,7 +8013,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -8083,7 +8030,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>48</v>
       </c>
@@ -8097,127 +8044,127 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="G7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="G8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="G9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="G10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="G11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="G12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="G13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="G14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="G15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="G16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G31" t="s">
         <v>38</v>
       </c>
@@ -8236,13 +8183,13 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -8250,7 +8197,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -8258,7 +8205,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -8266,7 +8213,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -8274,7 +8221,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -8282,7 +8229,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -8290,7 +8237,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -8298,7 +8245,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -8306,7 +8253,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -8314,7 +8261,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -8322,7 +8269,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -8330,7 +8277,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -8338,7 +8285,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -8346,7 +8293,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -8354,7 +8301,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -8362,7 +8309,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -8370,7 +8317,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -8378,7 +8325,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -8386,7 +8333,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -8394,7 +8341,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>110</v>
       </c>
@@ -8402,7 +8349,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>112</v>
       </c>
@@ -8410,7 +8357,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -8418,7 +8365,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -8426,7 +8373,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>115</v>
       </c>
@@ -8434,7 +8381,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -8442,7 +8389,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -8450,7 +8397,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>119</v>
       </c>
@@ -8458,7 +8405,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -8466,7 +8413,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -8474,7 +8421,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>125</v>
       </c>
@@ -8482,7 +8429,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>127</v>
       </c>
@@ -8490,7 +8437,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>129</v>
       </c>
@@ -8498,7 +8445,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -8506,7 +8453,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>133</v>
       </c>
@@ -8514,7 +8461,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>135</v>
       </c>
@@ -8522,7 +8469,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>137</v>
       </c>
@@ -8530,7 +8477,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>139</v>
       </c>
@@ -8538,7 +8485,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>141</v>
       </c>
@@ -8546,7 +8493,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>143</v>
       </c>
@@ -8554,7 +8501,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -8562,7 +8509,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>147</v>
       </c>
@@ -8570,7 +8517,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -8578,7 +8525,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>151</v>
       </c>
@@ -8586,7 +8533,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>153</v>
       </c>
@@ -8594,7 +8541,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>155</v>
       </c>
@@ -8602,7 +8549,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>157</v>
       </c>
@@ -8610,7 +8557,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>159</v>
       </c>
@@ -8618,7 +8565,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>161</v>
       </c>
@@ -8626,7 +8573,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>163</v>
       </c>
@@ -8634,7 +8581,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>165</v>
       </c>
@@ -8642,7 +8589,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>167</v>
       </c>
@@ -8650,7 +8597,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>169</v>
       </c>
@@ -8658,7 +8605,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>171</v>
       </c>
@@ -8666,7 +8613,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>173</v>
       </c>
@@ -8674,7 +8621,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -8682,7 +8629,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>175</v>
       </c>
@@ -8690,7 +8637,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>177</v>
       </c>
@@ -8698,7 +8645,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>179</v>
       </c>
@@ -8706,7 +8653,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>181</v>
       </c>
@@ -8714,7 +8661,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>183</v>
       </c>
@@ -8722,7 +8669,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -8730,7 +8677,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>187</v>
       </c>
@@ -8738,7 +8685,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>189</v>
       </c>
@@ -8746,7 +8693,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>191</v>
       </c>
@@ -8754,7 +8701,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -8762,7 +8709,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>195</v>
       </c>
@@ -8770,7 +8717,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>197</v>
       </c>
@@ -8778,7 +8725,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>199</v>
       </c>
@@ -8786,7 +8733,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>201</v>
       </c>
@@ -8794,7 +8741,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>203</v>
       </c>
@@ -8802,7 +8749,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>205</v>
       </c>
@@ -8810,7 +8757,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>207</v>
       </c>
@@ -8818,7 +8765,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>209</v>
       </c>
@@ -8826,7 +8773,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>211</v>
       </c>
@@ -8834,7 +8781,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>213</v>
       </c>
@@ -8842,7 +8789,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>215</v>
       </c>
@@ -8850,7 +8797,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>217</v>
       </c>
@@ -8858,7 +8805,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>219</v>
       </c>
@@ -8866,7 +8813,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>221</v>
       </c>
@@ -8874,7 +8821,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>223</v>
       </c>
@@ -8882,7 +8829,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>225</v>
       </c>
@@ -8899,21 +8846,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DED4A2CA298C634D861C291708FBD60B" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e9dad94b1987da259c39e2ef3e1e6b7a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -9027,34 +8963,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{659DA32C-5651-4ED5-961A-CEDF94F65B02}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF3B6C40-1D0B-4E20-A005-7908467DF3DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA75E35D-C619-45E2-A921-889D8A13153B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F3BCE80-3643-4525-B9BB-BDD667043D24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9070,10 +9002,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA75E35D-C619-45E2-A921-889D8A13153B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF3B6C40-1D0B-4E20-A005-7908467DF3DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{659DA32C-5651-4ED5-961A-CEDF94F65B02}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/pages/images/Dataset_Model_Current_TEMPLATE.xlsx
+++ b/pages/images/Dataset_Model_Current_TEMPLATE.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MDWILKIE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF32037C-C215-49CD-8802-FF601974F541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B0EE4F-4EB4-4614-8540-CCDAA115E351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="694" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset Model-New Dataset" sheetId="5" r:id="rId1"/>
     <sheet name="Dataset Model-Modify Dataset" sheetId="15" r:id="rId2"/>
-    <sheet name="Drop Downs" sheetId="4" r:id="rId3"/>
+    <sheet name="Drop Downs" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="abbreviations" sheetId="13" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
